--- a/Projektidata.xlsx
+++ b/Projektidata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12080" yWindow="5080" windowWidth="12800" windowHeight="8760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="17460" windowHeight="13440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Lämpötila" sheetId="2" r:id="rId1"/>
@@ -100,10 +100,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,14 +141,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,25 +458,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="1"/>
       <c r="K1">
         <v>4.97</v>
       </c>
@@ -443,29 +494,29 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>-20</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>684</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <f>B2+1000</f>
         <v>1684</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>$C$1/C2</f>
         <v>2.9691211401425177E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f t="shared" ref="E2:E13" si="0">B2*D2^2</f>
         <v>6.0299253558713829E-3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>1000*D2</f>
         <v>2.9691211401425179</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>$C$1-F2</f>
         <v>2.0308788598574821</v>
       </c>
@@ -493,29 +544,29 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>-10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>747</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C13" si="2">B3+1000</f>
         <v>1747</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D13" si="3">$C$1/C3</f>
         <v>2.8620492272467086E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>6.1189203570500604E-3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F13" si="4">1000*D3</f>
         <v>2.8620492272467084</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G13" si="5">$C$1-F3</f>
         <v>2.1379507727532916</v>
       </c>
@@ -543,29 +594,29 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>815</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f t="shared" si="2"/>
         <v>1815</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="3"/>
         <v>2.7548209366391185E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>6.1850662902503632E-3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="4"/>
         <v>2.7548209366391188</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" si="5"/>
         <v>2.2451790633608812</v>
       </c>
@@ -593,29 +644,29 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>886</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f t="shared" si="2"/>
         <v>1886</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="3"/>
         <v>2.6511134676564158E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>6.227164719892854E-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="4"/>
         <v>2.6511134676564159</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="5"/>
         <v>2.3488865323435841</v>
       </c>
@@ -643,29 +694,29 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>961</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f t="shared" si="2"/>
         <v>1961</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="3"/>
         <v>2.5497195308516064E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>6.2475279682518963E-3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="4"/>
         <v>2.5497195308516063</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="5"/>
         <v>2.4502804691483937</v>
       </c>
@@ -693,29 +744,29 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="3"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
@@ -743,29 +794,29 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>30</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1040</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="3"/>
         <v>2.4509803921568627E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>6.2475970780469054E-3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="4"/>
         <v>2.4509803921568629</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f t="shared" si="5"/>
         <v>2.5490196078431371</v>
       </c>
@@ -793,29 +844,29 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>40</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1122</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="2"/>
         <v>2122</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="3"/>
         <v>2.3562676720075399E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>6.2293410178898669E-3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="4"/>
         <v>2.3562676720075397</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="5"/>
         <v>2.6437323279924603</v>
       </c>
@@ -843,29 +894,29 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>50</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1209</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="2"/>
         <v>2209</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="3"/>
         <v>2.2634676324128564E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>6.1940524390836195E-3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="4"/>
         <v>2.2634676324128562</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f t="shared" si="5"/>
         <v>2.7365323675871438</v>
       </c>
@@ -893,29 +944,29 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>60</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1299</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f t="shared" si="2"/>
         <v>2299</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="3"/>
         <v>2.1748586341887779E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>6.1442830922384143E-3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="4"/>
         <v>2.1748586341887779</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f t="shared" si="5"/>
         <v>2.8251413658112221</v>
       </c>
@@ -943,29 +994,29 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>70</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1392</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f t="shared" si="2"/>
         <v>2392</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="3"/>
         <v>2.0903010033444815E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>6.0821467321394602E-3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="4"/>
         <v>2.0903010033444813</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f t="shared" si="5"/>
         <v>2.9096989966555187</v>
       </c>
@@ -993,29 +1044,29 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>80</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1490</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f t="shared" si="2"/>
         <v>2490</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="3"/>
         <v>2.008032128514056E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>6.0079676134255884E-3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f t="shared" si="4"/>
         <v>2.0080321285140559</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f t="shared" si="5"/>
         <v>2.9919678714859441</v>
       </c>
@@ -1117,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
